--- a/resources/tools/wordlist_E-J/lessons-3rd/lesson-10.xlsx
+++ b/resources/tools/wordlist_E-J/lessons-3rd/lesson-10.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1105,6 +1105,426 @@
         </is>
       </c>
     </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>local train</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>普通|ふつう</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>express train</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>急行|きゅうこう</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>super express train</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>特急|とっきゅう</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>bound for...</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>～行き|～いき</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>serving...areas</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>～方面|～ほうめん</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>(boarding) ticket</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>乗車券|じょうしゃけん</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>commuter's pass</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>定期券|ていきけん</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>student discount</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>学割|がくわり</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>reserved seat</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>指定席|していせき</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>general admission seat</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>自由席|じゆうせき</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Car No.1</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>一号車|いちごうしゃ</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>round trip</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>往復|おうふく</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>one way</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>片道|かたみち</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>rechargeable card such as Suica, Icoca, Pasmo, etc.</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>交通系ICカード|こうつうけいICかーど</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>track number...</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>～番線|～ばんせん</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>ticket vending area</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>切符売り場|きっぷうりば</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>gate</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>改札|かいさつ</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>platform</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>ホーム</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>shop; stand</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>売店|ばいてん</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>exit</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>出口|でぐち</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>entrance</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>入口|いりぐち</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>stairs</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>階段|かいだん</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>transfer</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>乗り換え|のりかえ</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>next (stop),...</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>次は～|つぎは～</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>departing first</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>先発|せんぱつ</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>departing second</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>次発|じはつ</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>last train</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>終電|しゅうでん</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>We will be leaving soon.</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>まもなく発車します。|まもなくはっしゃします。</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>A train is arriving.</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>電車が参ります。|でんしゃがまいります。</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Next (we'll stop at)...</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>次は～に止まります。|つぎは～にとまります。</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>The doors are closing. Please be careful.</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>ドアが閉まります。ご注意ください。|ドアがしまります。ごちゅういください。</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Does this train stop at Akihabara?</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>この電車は秋葉原に止まりますか。|このでんしゃはあきはばらにとまりますか。</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>What time is the last train.</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>終電は何時ですか。|しゅうでんはなんじですか。</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>One reserved ticket to Tokyo, please.</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>東京までの指定席を一枚お願いします。|とうきょうまでのしていせきをいちまいおねがいします。</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Can I get a student discount?</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>学割が使えますか。|がくわりがつかえますか。</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/resources/tools/wordlist_E-J/lessons-3rd/lesson-10.xlsx
+++ b/resources/tools/wordlist_E-J/lessons-3rd/lesson-10.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B92"/>
+  <dimension ref="A1:B141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1525,6 +1525,594 @@
         </is>
       </c>
     </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>to live</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>住む|すむ</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>address</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>住所|じゅうしょ</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>to immigrate</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>移住する|いじゅうする</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>New Year</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>お正月|おしょうがつ</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>正しい|ただしい</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>noon</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>正午|しょうご</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>correct answer</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>正解|せいかい</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>third-year student</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>三年生|さんねんせい</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>next year</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>来年|らいねん</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>this year</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>今年|ことし</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>year</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>年|とし</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>to sell</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>売る|うる</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>stand; stall</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>売店|ばいてん</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>vending machine</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>自動販売機|じどうはんばいき</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>to buy</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>買う|かう</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>shopping</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>買い物|かいもの</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>selling and buying</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>売買|ばいばい</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>town</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>町|まち</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Kitayama town</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>北山町|きたやまちょう</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>mayor of a town</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>町長|ちょうちょう</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>長い|ながい</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>the eldest son</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>長男|ちょうなん</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>company president</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>社長|しゃちょう</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>way; road</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>道|みち</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>calligraphy</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>書道|しょどう</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>judo</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>柔道|じゅうどう</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Hokkaido</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>北海道|ほっかいどう</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>snow</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>雪|ゆき</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>new snow</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>新雪|しんせつ</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>snowman</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>雪だるま|ゆきだるま</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>to stand</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>立つ|たつ</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>national university</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>国立大学|こくりつだいがく</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>private high school</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>私立高校|しりつこうこう</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>oneself</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>自分|じぶん</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>automobile</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>自動車|じどうしゃ</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>bicycle</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>自転車|じてんしゃ</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>freedom</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>自由|じゆう</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>night</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>夜|よる</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>middle of night; midnight</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>夜中|よなか</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>tonight</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>今夜|こんや</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>dawn</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>夜明け|よあけ</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>morning</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>朝|あさ</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>this morning</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>今朝|けさ</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>breakfast</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>朝食|ちょうしょく</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>every morning</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>毎朝|まいあさ</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>to carry; to hold</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>持つ|もつ</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>to bring</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>持ってくる|もってくる</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>belongings</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>所持品|しょじひん</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>feeling</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>気持ち|きもち</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/resources/tools/wordlist_E-J/lessons-3rd/lesson-10.xlsx
+++ b/resources/tools/wordlist_E-J/lessons-3rd/lesson-10.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -2114,6 +2114,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>